--- a/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-disability.xlsx
+++ b/root/packages/mpi/ballot-2023-may/StructureDefinition-ee-mpi-socialhistory-disability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:50:45+03:00</t>
+    <t>2023-05-30T18:29:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -775,44 +775,13 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:coding}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
-    <t>Observation.category:obscat</t>
-  </si>
-  <si>
-    <t>obscat</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="social-history"/&gt;
-    &lt;display value="Social history"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.id</t>
-  </si>
-  <si>
     <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -825,7 +794,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding</t>
+    <t>open</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -847,6 +816,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -856,19 +829,35 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.id</t>
+    <t>Observation.category.coding:obscat</t>
+  </si>
+  <si>
+    <t>obscat</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+  &lt;code value="social-history"/&gt;
+  &lt;display value="Social history"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://fhir.ee/ValueSet/ee-observation-category</t>
+  </si>
+  <si>
+    <t>Observation.category.coding:obscat.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.extension</t>
+    <t>Observation.category.coding:obscat.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.system</t>
+    <t>Observation.category.coding:obscat.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -898,7 +887,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.version</t>
+    <t>Observation.category.coding:obscat.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -922,7 +911,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.code</t>
+    <t>Observation.category.coding:obscat.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -950,7 +939,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.display</t>
+    <t>Observation.category.coding:obscat.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -974,7 +963,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:obscat.coding.userSelected</t>
+    <t>Observation.category.coding:obscat.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -1003,9 +992,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Observation.category:obscat.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -4878,7 +4864,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4942,14 +4928,16 @@
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>233</v>
@@ -4970,7 +4958,7 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>82</v>
@@ -4979,7 +4967,7 @@
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4987,14 +4975,12 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5003,10 +4989,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5015,26 +5001,22 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5052,11 +5034,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5074,25 +5058,25 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>82</v>
@@ -5101,7 +5085,7 @@
         <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5109,21 +5093,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5135,15 +5119,17 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5180,31 +5166,31 @@
         <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
@@ -5227,18 +5213,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5250,21 +5236,23 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5300,19 +5288,17 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AC26" t="s" s="2">
         <v>255</v>
       </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5324,7 +5310,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5336,10 +5322,10 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>82</v>
@@ -5347,24 +5333,26 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5373,26 +5361,26 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>82</v>
@@ -5410,13 +5398,11 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5434,7 +5420,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5458,10 +5444,10 @@
         <v>82</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>82</v>
@@ -5469,10 +5455,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5587,10 +5573,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5660,16 +5646,16 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>190</v>
@@ -5707,10 +5693,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5736,23 +5722,23 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5794,7 +5780,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5818,10 +5804,10 @@
         <v>82</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5829,10 +5815,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5858,13 +5844,13 @@
         <v>182</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5914,7 +5900,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5938,10 +5924,10 @@
         <v>82</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5949,10 +5935,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5978,14 +5964,14 @@
         <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -6034,7 +6020,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6043,7 +6029,7 @@
         <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>105</v>
@@ -6058,10 +6044,10 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6069,10 +6055,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6098,14 +6084,14 @@
         <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6154,7 +6140,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6163,7 +6149,7 @@
         <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>105</v>
@@ -6178,10 +6164,10 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6189,10 +6175,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6215,19 +6201,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6276,7 +6262,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6300,10 +6286,10 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6311,10 +6297,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6340,16 +6326,16 @@
         <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6398,7 +6384,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6422,10 +6408,10 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6433,14 +6419,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6462,23 +6448,23 @@
         <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6496,13 +6482,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6520,7 +6506,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>93</v>
@@ -6529,36 +6515,36 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6581,19 +6567,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6642,7 +6628,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6657,19 +6643,19 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6677,10 +6663,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6703,16 +6689,16 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6762,7 +6748,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6780,16 +6766,16 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6797,14 +6783,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6823,19 +6809,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6884,7 +6870,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6899,19 +6885,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -6919,14 +6905,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6945,19 +6931,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7006,7 +6992,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7021,19 +7007,19 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7041,10 +7027,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7067,16 +7053,16 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7126,7 +7112,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7144,16 +7130,16 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7161,10 +7147,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7187,17 +7173,17 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7246,7 +7232,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7261,19 +7247,19 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7281,10 +7267,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7310,16 +7296,16 @@
         <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7356,17 +7342,17 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7375,7 +7361,7 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
@@ -7387,27 +7373,27 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>82</v>
@@ -7432,16 +7418,16 @@
         <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7470,7 +7456,7 @@
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7488,7 +7474,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7497,7 +7483,7 @@
         <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7509,24 +7495,24 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7552,16 +7538,16 @@
         <v>234</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7586,13 +7572,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7610,7 +7596,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7619,7 +7605,7 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>105</v>
@@ -7637,7 +7623,7 @@
         <v>138</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>82</v>
@@ -7645,14 +7631,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7674,16 +7660,16 @@
         <v>234</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7708,13 +7694,13 @@
         <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>82</v>
@@ -7732,7 +7718,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7753,24 +7739,24 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7793,19 +7779,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7854,7 +7840,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7878,10 +7864,10 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7889,10 +7875,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7918,13 +7904,13 @@
         <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7950,13 +7936,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7974,7 +7960,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7983,7 +7969,7 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>105</v>
@@ -7995,24 +7981,24 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8035,16 +8021,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8094,7 +8080,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8103,7 +8089,7 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -8121,7 +8107,7 @@
         <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8129,10 +8115,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8158,16 +8144,16 @@
         <v>234</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8192,13 +8178,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8216,7 +8202,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8240,10 +8226,10 @@
         <v>82</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8251,10 +8237,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8277,16 +8263,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8336,7 +8322,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8348,33 +8334,33 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8397,16 +8383,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8456,7 +8442,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8477,24 +8463,24 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8520,16 +8506,16 @@
         <v>178</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8578,7 +8564,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8590,7 +8576,7 @@
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8602,10 +8588,10 @@
         <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>82</v>
@@ -8613,10 +8599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8731,10 +8717,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8851,10 +8837,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8973,10 +8959,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8999,13 +8985,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9056,7 +9042,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9065,7 +9051,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9080,10 +9066,10 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>82</v>
@@ -9091,10 +9077,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9117,13 +9103,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9174,7 +9160,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9183,7 +9169,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>105</v>
@@ -9198,10 +9184,10 @@
         <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>82</v>
@@ -9209,10 +9195,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9238,10 +9224,10 @@
         <v>234</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9268,13 +9254,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9292,7 +9278,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9316,10 +9302,10 @@
         <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9327,10 +9313,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9356,16 +9342,16 @@
         <v>234</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9393,10 +9379,10 @@
         <v>239</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
@@ -9414,7 +9400,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9435,13 +9421,13 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>82</v>
@@ -9449,10 +9435,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9478,16 +9464,16 @@
         <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9512,13 +9498,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9536,7 +9522,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9557,13 +9543,13 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9571,10 +9557,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9597,17 +9583,17 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9656,7 +9642,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9683,7 +9669,7 @@
         <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9691,10 +9677,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9717,13 +9703,13 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9774,7 +9760,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9783,7 +9769,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9798,10 +9784,10 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9809,10 +9795,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9835,16 +9821,16 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9894,7 +9880,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9918,7 +9904,7 @@
         <v>82</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>200</v>
@@ -9929,10 +9915,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9955,16 +9941,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10014,7 +10000,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10038,10 +10024,10 @@
         <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10049,10 +10035,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10078,16 +10064,16 @@
         <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10136,7 +10122,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10145,7 +10131,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10160,10 +10146,10 @@
         <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10171,10 +10157,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10289,10 +10275,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10409,10 +10395,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10531,10 +10517,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10560,16 +10546,16 @@
         <v>234</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10594,13 +10580,13 @@
         <v>82</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>82</v>
@@ -10618,7 +10604,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>93</v>
@@ -10627,7 +10613,7 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10636,13 +10622,13 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>206</v>
@@ -10653,10 +10639,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10679,19 +10665,19 @@
         <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10740,7 +10726,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10761,24 +10747,24 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10804,16 +10790,16 @@
         <v>234</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -10838,13 +10824,13 @@
         <v>82</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -10862,7 +10848,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10889,7 +10875,7 @@
         <v>138</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>82</v>
@@ -10897,14 +10883,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10926,16 +10912,16 @@
         <v>234</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10960,13 +10946,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -10984,7 +10970,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11005,24 +10991,24 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11048,16 +11034,16 @@
         <v>82</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11106,7 +11092,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11130,10 +11116,10 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>82</v>
